--- a/results/gurobi_cplex_comparison/seed_20_k_20.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_20.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008</v>
+        <v>0.555</v>
       </c>
       <c r="F2">
-        <v>0.021</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.023</v>
+        <v>0.801</v>
       </c>
       <c r="F3">
-        <v>0.049</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.024</v>
+        <v>1.103</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.026</v>
+        <v>1.415</v>
       </c>
       <c r="F5">
-        <v>0.05</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.053</v>
+        <v>1.812</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.028</v>
+        <v>2.212</v>
       </c>
       <c r="F7">
-        <v>0.064</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.019</v>
+        <v>2.676</v>
       </c>
       <c r="F8">
-        <v>0.041</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.056</v>
+        <v>3.17</v>
       </c>
       <c r="F9">
-        <v>0.062</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.031</v>
+        <v>3.734</v>
       </c>
       <c r="F10">
-        <v>0.067</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.025</v>
+        <v>4.296</v>
       </c>
       <c r="F11">
-        <v>0.054</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.047</v>
+        <v>4.938</v>
       </c>
       <c r="F12">
-        <v>114.174</v>
+        <v>96.893</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.185</v>
+        <v>5.803</v>
       </c>
       <c r="F13">
-        <v>86.41</v>
+        <v>95.02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09</v>
+        <v>6.461</v>
       </c>
       <c r="F14">
-        <v>122.885</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.186</v>
+        <v>7.244</v>
       </c>
       <c r="F15">
-        <v>75.908</v>
+        <v>90.824</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09</v>
+        <v>8.068</v>
       </c>
       <c r="F16">
-        <v>115.787</v>
+        <v>92.714</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.167</v>
+        <v>8.917</v>
       </c>
       <c r="F17">
-        <v>105.885</v>
+        <v>130.395</v>
       </c>
     </row>
   </sheetData>
